--- a/biology/Botanique/Sabicea_sthenula/Sabicea_sthenula.xlsx
+++ b/biology/Botanique/Sabicea_sthenula/Sabicea_sthenula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sabicea sthenula est une plante faisant partie de la flore camerounaise, mais également présente au Gabon, découverte par Nicolas Hallé[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabicea sthenula est une plante faisant partie de la flore camerounaise, mais également présente au Gabon, découverte par Nicolas Hallé. 
 Elle a pour synonyme : Pseudosabicea sthenula N.Hallé, 1966.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sabicea sthenula est une espèce de plante herbacée ripicole poussant dans la forêt tropicale. Au Cameroun, des spécimens de Pseudosabicea sthenula ont été récoltés dans le village de Bidjap par J. et A. Raynal en 1963[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabicea sthenula est une espèce de plante herbacée ripicole poussant dans la forêt tropicale. Au Cameroun, des spécimens de Pseudosabicea sthenula ont été récoltés dans le village de Bidjap par J. et A. Raynal en 1963.
 </t>
         </is>
       </c>
